--- a/data/2023-24/version0/suiza_super-league_23-24.xlsx
+++ b/data/2023-24/version0/suiza_super-league_23-24.xlsx
@@ -499,15 +499,11 @@
           <t>Zúrich</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -526,15 +522,11 @@
           <t>Lugano</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -553,15 +545,11 @@
           <t>Young Boys</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -580,15 +568,11 @@
           <t>Yverdon</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -607,15 +591,11 @@
           <t>Grasshoppers</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -634,15 +614,11 @@
           <t>Lausanne</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -661,15 +637,11 @@
           <t>Lucerna</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,15 +660,11 @@
           <t>Winterthur</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -715,15 +683,11 @@
           <t>Servette</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -742,15 +706,11 @@
           <t>St. Gallen</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -769,15 +729,11 @@
           <t>Young Boys</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -796,15 +752,11 @@
           <t>Yverdon</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -823,15 +775,11 @@
           <t>Lausanne</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -850,15 +798,11 @@
           <t>St. Gallen</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -877,15 +821,11 @@
           <t>Zúrich</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -904,15 +844,11 @@
           <t>Grasshoppers</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -931,15 +867,11 @@
           <t>Basilea</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -958,15 +890,11 @@
           <t>Lucerna</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -985,15 +913,11 @@
           <t>Yverdon</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1012,15 +936,11 @@
           <t>Lugano</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1039,15 +959,11 @@
           <t>Servette</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1066,15 +982,11 @@
           <t>Winterthur</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1093,15 +1005,11 @@
           <t>Winterthur</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1120,15 +1028,11 @@
           <t>Young Boys</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1147,15 +1051,11 @@
           <t>Lausanne Ouchy</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1174,15 +1074,11 @@
           <t>Zúrich</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1201,15 +1097,11 @@
           <t>Grasshoppers</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1228,15 +1120,11 @@
           <t>St. Gallen</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1255,15 +1143,11 @@
           <t>Lugano</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1282,15 +1166,11 @@
           <t>Lausanne</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1309,15 +1189,11 @@
           <t>Yverdon</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1336,15 +1212,11 @@
           <t>Lucerna</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1363,15 +1235,11 @@
           <t>Servette</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1390,15 +1258,11 @@
           <t>Basilea</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
